--- a/Statistical analyses/Tukey posthoc/glycosidicBond/glycosidicBond, Vegetation x Precipitation, groups, annotated.xlsx
+++ b/Statistical analyses/Tukey posthoc/glycosidicBond/glycosidicBond, Vegetation x Precipitation, groups, annotated.xlsx
@@ -28,10 +28,10 @@
     <t>Grassland x Reduced</t>
   </si>
   <si>
-    <t>Shrub x Ambient</t>
-  </si>
-  <si>
-    <t>Shrub x Reduced</t>
+    <t>CSS x Ambient</t>
+  </si>
+  <si>
+    <t>CSS x Reduced</t>
   </si>
   <si>
     <t>a</t>
